--- a/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187EE3C3-46BF-45AB-98F5-B717CF414B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F6181E4-F4A1-4D7C-9BD0-285CEF8CA3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A8104DA-AA54-401A-9063-F731445A61ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A272F7ED-2BAE-4482-B893-720AC3411971}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="686">
-  <si>
-    <t>Clase social de la persona entrevistada, recodificación en grupos en 2007 (Tasa respuesta: 99,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="695">
+  <si>
+    <t>Clase social de la persona entrevistada en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -632,7 +632,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Clase social de la persona entrevistada, recodificación en grupos en 2012 (Tasa respuesta: 99,82%)</t>
+    <t>Clase social de la persona entrevistada en 2012 (Tasa respuesta: 99,82%)</t>
   </si>
   <si>
     <t>28,15%</t>
@@ -1148,7 +1148,7 @@
     <t>11,57%</t>
   </si>
   <si>
-    <t>Clase social de la persona entrevistada, recodificación en grupos en 2016 (Tasa respuesta: 99,71%)</t>
+    <t>Clase social de la persona entrevistada en 2016 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>35,51%</t>
@@ -1646,91 +1646,100 @@
     <t>10,97%</t>
   </si>
   <si>
-    <t>Clase social de la persona entrevistada, recodificación en grupos en 2023 (Tasa respuesta: 97,72%)</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
+    <t>Clase social de la persona entrevistada en 2023 (Tasa respuesta: 97,72%)</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>2,12%</t>
@@ -1739,7 +1748,10 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>2,92%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -1748,355 +1760,370 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
 </sst>
 </file>
@@ -2508,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7547B40B-96CE-4E61-85A2-A2513479B154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F6F0E0-3665-4621-AAD5-1C1D4403A6D2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3871,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44130FC7-FDEE-4D74-94D2-797310713669}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D75C52-B318-4020-B4E1-6B771051425C}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5234,7 +5261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F21622B-21E6-4E95-9ECE-445209F37316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC71B1E2-DE8F-4BC8-802D-4163E3686BE1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5765,7 +5792,7 @@
         <v>338</v>
       </c>
       <c r="D12" s="7">
-        <v>359665</v>
+        <v>359664</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>430</v>
@@ -5918,7 +5945,7 @@
         <v>1948</v>
       </c>
       <c r="D15" s="7">
-        <v>2070810</v>
+        <v>2070809</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6279,7 +6306,7 @@
         <v>862</v>
       </c>
       <c r="D22" s="7">
-        <v>900756</v>
+        <v>900755</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>495</v>
@@ -6330,7 +6357,7 @@
         <v>1099</v>
       </c>
       <c r="D23" s="7">
-        <v>1145326</v>
+        <v>1145325</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>504</v>
@@ -6534,7 +6561,7 @@
         <v>3208</v>
       </c>
       <c r="D27" s="7">
-        <v>3368990</v>
+        <v>3368989</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6597,7 +6624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9306A6-BD4C-47C2-AE3A-FDA6E58AD1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6705D7-9547-4651-ACCC-F0917C3D8859}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6718,7 +6745,7 @@
         <v>232</v>
       </c>
       <c r="D4" s="7">
-        <v>178196</v>
+        <v>168631</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>536</v>
@@ -6733,7 +6760,7 @@
         <v>1097</v>
       </c>
       <c r="I4" s="7">
-        <v>647435</v>
+        <v>582962</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>539</v>
@@ -6748,7 +6775,7 @@
         <v>1329</v>
       </c>
       <c r="N4" s="7">
-        <v>825630</v>
+        <v>751593</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>542</v>
@@ -6769,7 +6796,7 @@
         <v>321</v>
       </c>
       <c r="D5" s="7">
-        <v>255205</v>
+        <v>244123</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>545</v>
@@ -6784,31 +6811,31 @@
         <v>209</v>
       </c>
       <c r="I5" s="7">
-        <v>112972</v>
+        <v>104999</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>548</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>549</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M5" s="7">
         <v>530</v>
       </c>
       <c r="N5" s="7">
-        <v>368176</v>
+        <v>349122</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,46 +6847,46 @@
         <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>73031</v>
+        <v>69122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>553</v>
+        <v>351</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>554</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H6" s="7">
         <v>74</v>
       </c>
       <c r="I6" s="7">
-        <v>43334</v>
+        <v>39049</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>556</v>
+        <v>227</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>126</v>
+        <v>557</v>
       </c>
       <c r="M6" s="7">
         <v>168</v>
       </c>
       <c r="N6" s="7">
-        <v>116364</v>
+        <v>108171</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,46 +6898,46 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>18295</v>
+        <v>17083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>281</v>
+        <v>563</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>10487</v>
+        <v>9558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>28782</v>
+        <v>26641</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6922,46 +6949,46 @@
         <v>15</v>
       </c>
       <c r="D8" s="7">
-        <v>10584</v>
+        <v>10119</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>570</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>10756</v>
+        <v>9020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>573</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>21339</v>
+        <v>19139</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>571</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,7 +7000,7 @@
         <v>685</v>
       </c>
       <c r="D9" s="7">
-        <v>535311</v>
+        <v>509078</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6988,7 +7015,7 @@
         <v>1412</v>
       </c>
       <c r="I9" s="7">
-        <v>824982</v>
+        <v>745588</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7003,7 +7030,7 @@
         <v>2097</v>
       </c>
       <c r="N9" s="7">
-        <v>1360292</v>
+        <v>1254666</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7026,46 +7053,46 @@
         <v>394</v>
       </c>
       <c r="D10" s="7">
-        <v>507979</v>
+        <v>506734</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>573</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>574</v>
+        <v>389</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>74</v>
+        <v>578</v>
       </c>
       <c r="H10" s="7">
         <v>1271</v>
       </c>
       <c r="I10" s="7">
-        <v>968306</v>
+        <v>955939</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M10" s="7">
         <v>1665</v>
       </c>
       <c r="N10" s="7">
-        <v>1476285</v>
+        <v>1462673</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,46 +7104,46 @@
         <v>737</v>
       </c>
       <c r="D11" s="7">
-        <v>753546</v>
+        <v>730686</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="H11" s="7">
         <v>920</v>
       </c>
       <c r="I11" s="7">
-        <v>763944</v>
+        <v>810722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>588</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M11" s="7">
         <v>1657</v>
       </c>
       <c r="N11" s="7">
-        <v>1517490</v>
+        <v>1541408</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,46 +7155,46 @@
         <v>363</v>
       </c>
       <c r="D12" s="7">
-        <v>395331</v>
+        <v>570172</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="H12" s="7">
         <v>194</v>
       </c>
       <c r="I12" s="7">
-        <v>126778</v>
+        <v>115741</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>599</v>
       </c>
       <c r="M12" s="7">
         <v>557</v>
       </c>
       <c r="N12" s="7">
-        <v>522109</v>
+        <v>685914</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,46 +7206,46 @@
         <v>328</v>
       </c>
       <c r="D13" s="7">
-        <v>326405</v>
+        <v>308865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>596</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="H13" s="7">
         <v>351</v>
       </c>
       <c r="I13" s="7">
-        <v>248796</v>
+        <v>227467</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>605</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>607</v>
       </c>
       <c r="M13" s="7">
         <v>679</v>
       </c>
       <c r="N13" s="7">
-        <v>575201</v>
+        <v>536333</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>602</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,46 +7257,46 @@
         <v>132</v>
       </c>
       <c r="D14" s="7">
-        <v>129710</v>
+        <v>123856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>610</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>87095</v>
+        <v>79499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>216805</v>
+        <v>203355</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,7 +7308,7 @@
         <v>1954</v>
       </c>
       <c r="D15" s="7">
-        <v>2112972</v>
+        <v>2240314</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7296,7 +7323,7 @@
         <v>2858</v>
       </c>
       <c r="I15" s="7">
-        <v>2194918</v>
+        <v>2189369</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7311,7 +7338,7 @@
         <v>4812</v>
       </c>
       <c r="N15" s="7">
-        <v>4307890</v>
+        <v>4429683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7334,46 +7361,46 @@
         <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>41333</v>
+        <v>39035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>132</v>
+        <v>619</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
       </c>
       <c r="I16" s="7">
-        <v>65946</v>
+        <v>59389</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
       </c>
       <c r="N16" s="7">
-        <v>107280</v>
+        <v>98424</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,46 +7412,46 @@
         <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>55110</v>
+        <v>57960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>65197</v>
+        <v>61621</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="M17" s="7">
         <v>156</v>
       </c>
       <c r="N17" s="7">
-        <v>120307</v>
+        <v>119580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>624</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,46 +7463,46 @@
         <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>31027</v>
+        <v>28970</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>625</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>13243</v>
+        <v>12121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>44270</v>
+        <v>41090</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>626</v>
+        <v>57</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,46 +7514,46 @@
         <v>128</v>
       </c>
       <c r="D19" s="7">
-        <v>129983</v>
+        <v>124848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="H19" s="7">
         <v>222</v>
       </c>
       <c r="I19" s="7">
-        <v>156441</v>
+        <v>145555</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="M19" s="7">
         <v>350</v>
       </c>
       <c r="N19" s="7">
-        <v>286423</v>
+        <v>270403</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,46 +7565,46 @@
         <v>405</v>
       </c>
       <c r="D20" s="7">
-        <v>388648</v>
+        <v>370029</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>641</v>
+        <v>494</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="H20" s="7">
         <v>549</v>
       </c>
       <c r="I20" s="7">
-        <v>388101</v>
+        <v>358948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>651</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="M20" s="7">
         <v>954</v>
       </c>
       <c r="N20" s="7">
-        <v>776749</v>
+        <v>728976</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>645</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>646</v>
+        <v>494</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,7 +7616,7 @@
         <v>652</v>
       </c>
       <c r="D21" s="7">
-        <v>646100</v>
+        <v>620842</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7604,7 +7631,7 @@
         <v>968</v>
       </c>
       <c r="I21" s="7">
-        <v>688927</v>
+        <v>637633</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7619,7 +7646,7 @@
         <v>1620</v>
       </c>
       <c r="N21" s="7">
-        <v>1335028</v>
+        <v>1258474</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7642,46 +7669,46 @@
         <v>657</v>
       </c>
       <c r="D22" s="7">
-        <v>727509</v>
+        <v>714400</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="H22" s="7">
         <v>2445</v>
       </c>
       <c r="I22" s="7">
-        <v>1681686</v>
+        <v>1598290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M22" s="7">
         <v>3102</v>
       </c>
       <c r="N22" s="7">
-        <v>2409195</v>
+        <v>2312690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,46 +7720,46 @@
         <v>1115</v>
       </c>
       <c r="D23" s="7">
-        <v>1063861</v>
+        <v>1032768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>664</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="H23" s="7">
         <v>1228</v>
       </c>
       <c r="I23" s="7">
-        <v>942112</v>
+        <v>977342</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="M23" s="7">
         <v>2343</v>
       </c>
       <c r="N23" s="7">
-        <v>2005973</v>
+        <v>2010110</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,46 +7771,46 @@
         <v>488</v>
       </c>
       <c r="D24" s="7">
-        <v>499389</v>
+        <v>668264</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>665</v>
+        <v>189</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="H24" s="7">
         <v>289</v>
       </c>
       <c r="I24" s="7">
-        <v>183354</v>
+        <v>166911</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>667</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M24" s="7">
         <v>777</v>
       </c>
       <c r="N24" s="7">
-        <v>682743</v>
+        <v>835175</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>269</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7795,46 +7822,46 @@
         <v>479</v>
       </c>
       <c r="D25" s="7">
-        <v>474683</v>
+        <v>450797</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>265</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="H25" s="7">
         <v>590</v>
       </c>
       <c r="I25" s="7">
-        <v>415723</v>
+        <v>382580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="M25" s="7">
         <v>1069</v>
       </c>
       <c r="N25" s="7">
-        <v>890406</v>
+        <v>833377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>459</v>
+        <v>686</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>677</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,46 +7873,46 @@
         <v>552</v>
       </c>
       <c r="D26" s="7">
-        <v>528942</v>
+        <v>504004</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="H26" s="7">
         <v>686</v>
       </c>
       <c r="I26" s="7">
-        <v>485951</v>
+        <v>447467</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>683</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="M26" s="7">
         <v>1238</v>
       </c>
       <c r="N26" s="7">
-        <v>1014893</v>
+        <v>951471</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>693</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>685</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7924,7 @@
         <v>3291</v>
       </c>
       <c r="D27" s="7">
-        <v>3294384</v>
+        <v>3370233</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7912,7 +7939,7 @@
         <v>5238</v>
       </c>
       <c r="I27" s="7">
-        <v>3708827</v>
+        <v>3572590</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7927,7 +7954,7 @@
         <v>8529</v>
       </c>
       <c r="N27" s="7">
-        <v>7003211</v>
+        <v>6942823</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
